--- a/model/Outputs/8. Fixed RE/With PV/Output Files/50/Output_6_31.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/50/Output_6_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177298</v>
+        <v>3940022.790763221</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177298</v>
+        <v>3940022.790763221</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494347534.489019</v>
+        <v>56787597.0185868</v>
       </c>
     </row>
   </sheetData>
@@ -676,7 +676,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F2" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150336</v>
       </c>
       <c r="G2" t="n">
         <v>397.8840054528454</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T2" t="n">
         <v>560.964918411981</v>
@@ -1156,7 +1156,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H8" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T8" t="n">
         <v>560.964918411981</v>
@@ -1381,7 +1381,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D11" t="n">
-        <v>408.9508114468717</v>
+        <v>410.3391557398498</v>
       </c>
       <c r="E11" t="n">
         <v>404.3632896068686</v>
@@ -1393,7 +1393,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H11" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1502,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S12" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T12" t="n">
         <v>392.6911708778912</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T14" t="n">
         <v>560.964918411981</v>
       </c>
       <c r="U14" t="n">
-        <v>647.3630829088994</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V14" t="n">
         <v>629.8510241668239</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H17" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V17" t="n">
-        <v>629.8510241668239</v>
+        <v>628.4626798738458</v>
       </c>
       <c r="W17" t="n">
         <v>638.3734759809475</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="I19" t="n">
         <v>97.40414414470841</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S24" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T24" t="n">
         <v>392.6911708778912</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="U28" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F35" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150336</v>
       </c>
       <c r="G35" t="n">
         <v>397.8840054528454</v>
@@ -3331,7 +3331,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V35" t="n">
-        <v>628.4626798738458</v>
+        <v>629.8510241668239</v>
       </c>
       <c r="W35" t="n">
         <v>638.3734759809475</v>
@@ -3635,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S39" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T39" t="n">
         <v>392.6911708778912</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,10 +3745,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>481.9993129555745</v>
+        <v>480.6109686625962</v>
       </c>
       <c r="C41" t="n">
-        <v>448.0862339500159</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D41" t="n">
         <v>410.3391557398498</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C2" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D2" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E2" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F2" t="n">
         <v>894.2358041069906</v>
@@ -4336,10 +4336,10 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J2" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K2" t="n">
-        <v>1936.671378010443</v>
+        <v>2550.716641651425</v>
       </c>
       <c r="L2" t="n">
         <v>3681.051378010443</v>
@@ -4363,25 +4363,25 @@
         <v>7048</v>
       </c>
       <c r="S2" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T2" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U2" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V2" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W2" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X2" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y2" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="3">
@@ -4503,13 +4503,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="M4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O4" t="n">
-        <v>457.4949902104935</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="P4" t="n">
         <v>457.4949902104935</v>
@@ -4576,19 +4576,19 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K5" t="n">
-        <v>1415.008586083262</v>
+        <v>1929.233537634604</v>
       </c>
       <c r="L5" t="n">
-        <v>2819.17922466306</v>
+        <v>2846.826260951187</v>
       </c>
       <c r="M5" t="n">
-        <v>3301.358424176563</v>
+        <v>3329.005460464689</v>
       </c>
       <c r="N5" t="n">
-        <v>3866.401488049235</v>
+        <v>3894.048524337361</v>
       </c>
       <c r="O5" t="n">
-        <v>4776.556370989979</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P5" t="n">
         <v>6474.295852434775</v>
@@ -4728,22 +4728,22 @@
         <v>140.96</v>
       </c>
       <c r="I7" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="J7" t="n">
-        <v>290.4466099967136</v>
+        <v>440.0999956178874</v>
       </c>
       <c r="K7" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="L7" t="n">
-        <v>326.8726278290461</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="M7" t="n">
-        <v>326.8726278290461</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N7" t="n">
-        <v>326.8726278290461</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O7" t="n">
         <v>457.4949902104935</v>
@@ -4786,22 +4786,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C8" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D8" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E8" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F8" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G8" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H8" t="n">
         <v>140.96</v>
@@ -4810,16 +4810,16 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J8" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K8" t="n">
-        <v>2550.716641651425</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L8" t="n">
-        <v>3681.051378010443</v>
+        <v>2595.354589746543</v>
       </c>
       <c r="M8" t="n">
-        <v>4163.230577523946</v>
+        <v>3077.533789260046</v>
       </c>
       <c r="N8" t="n">
         <v>4728.273641396618</v>
@@ -4837,25 +4837,25 @@
         <v>7048</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T8" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U8" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V8" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W8" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X8" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y8" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="9">
@@ -4947,43 +4947,43 @@
         <v>140.96</v>
       </c>
       <c r="C10" t="n">
-        <v>140.96</v>
+        <v>177.2942414961738</v>
       </c>
       <c r="D10" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="E10" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="F10" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="G10" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="H10" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="I10" t="n">
-        <v>259.7315161073162</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="J10" t="n">
-        <v>409.2181261040298</v>
+        <v>440.0999956178874</v>
       </c>
       <c r="K10" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="L10" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="M10" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N10" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O10" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P10" t="n">
         <v>457.4949902104935</v>
@@ -5029,16 +5029,16 @@
         <v>2124.744622048154</v>
       </c>
       <c r="D11" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E11" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F11" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G11" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H11" t="n">
         <v>140.96</v>
@@ -5050,22 +5050,22 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K11" t="n">
-        <v>1415.008586083262</v>
+        <v>1901.586501346477</v>
       </c>
       <c r="L11" t="n">
-        <v>3071.357825473565</v>
+        <v>2819.17922466306</v>
       </c>
       <c r="M11" t="n">
-        <v>3553.537024987068</v>
+        <v>3301.358424176563</v>
       </c>
       <c r="N11" t="n">
-        <v>4118.58008885974</v>
+        <v>3866.401488049235</v>
       </c>
       <c r="O11" t="n">
-        <v>5028.734971800483</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P11" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q11" t="n">
         <v>6931.116362236997</v>
@@ -5150,7 +5150,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R12" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S12" t="n">
         <v>5159.222422432123</v>
@@ -5181,25 +5181,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C13" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D13" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="E13" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="F13" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="G13" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="H13" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I13" t="n">
         <v>140.96</v>
@@ -5244,13 +5244,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="W13" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X13" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y13" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="14">
@@ -5290,19 +5290,19 @@
         <v>2124.71495243113</v>
       </c>
       <c r="L14" t="n">
-        <v>3681.051378010443</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M14" t="n">
-        <v>4163.230577523946</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N14" t="n">
-        <v>4728.273641396618</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O14" t="n">
-        <v>5638.428524337362</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P14" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q14" t="n">
         <v>6931.116362236997</v>
@@ -5311,10 +5311,10 @@
         <v>7048</v>
       </c>
       <c r="S14" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T14" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U14" t="n">
         <v>5462.811290515621</v>
@@ -5418,22 +5418,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H16" t="n">
         <v>140.96</v>
@@ -5475,19 +5475,19 @@
         <v>307.8416045893196</v>
       </c>
       <c r="U16" t="n">
-        <v>307.8416045893196</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="V16" t="n">
-        <v>307.8416045893196</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="W16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="17">
@@ -5497,22 +5497,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C17" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D17" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E17" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F17" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G17" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H17" t="n">
         <v>140.96</v>
@@ -5557,16 +5557,16 @@
         <v>5461.408922542916</v>
       </c>
       <c r="V17" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W17" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X17" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y17" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="18">
@@ -5655,22 +5655,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C19" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D19" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E19" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F19" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G19" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H19" t="n">
         <v>239.3480243885944</v>
@@ -5712,19 +5712,19 @@
         <v>307.8416045893196</v>
       </c>
       <c r="U19" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V19" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W19" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X19" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y19" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="20">
@@ -5761,19 +5761,19 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K20" t="n">
-        <v>1677.76186642996</v>
+        <v>1901.586501346477</v>
       </c>
       <c r="L20" t="n">
-        <v>2595.354589746543</v>
+        <v>2819.17922466306</v>
       </c>
       <c r="M20" t="n">
-        <v>3077.533789260046</v>
+        <v>3301.358424176563</v>
       </c>
       <c r="N20" t="n">
-        <v>4728.273641396618</v>
+        <v>3866.401488049235</v>
       </c>
       <c r="O20" t="n">
-        <v>5638.428524337362</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P20" t="n">
         <v>6474.295852434775</v>
@@ -6004,13 +6004,13 @@
         <v>2257.013012360075</v>
       </c>
       <c r="M23" t="n">
-        <v>3077.533789260046</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N23" t="n">
-        <v>4728.273641396618</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O23" t="n">
-        <v>5638.428524337362</v>
+        <v>5048.61527574625</v>
       </c>
       <c r="P23" t="n">
         <v>6474.295852434775</v>
@@ -6098,7 +6098,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R24" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S24" t="n">
         <v>5159.222422432123</v>
@@ -6235,25 +6235,25 @@
         <v>599.7771454756521</v>
       </c>
       <c r="K26" t="n">
-        <v>2049.12665539136</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L26" t="n">
-        <v>3681.051378010443</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M26" t="n">
-        <v>4163.230577523946</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N26" t="n">
-        <v>4728.273641396618</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O26" t="n">
-        <v>5638.428524337362</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P26" t="n">
-        <v>6474.295852434775</v>
+        <v>5912.12964013179</v>
       </c>
       <c r="Q26" t="n">
-        <v>6931.116362236997</v>
+        <v>6978.643702470889</v>
       </c>
       <c r="R26" t="n">
         <v>7048</v>
@@ -6366,7 +6366,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="C28" t="n">
         <v>140.96</v>
@@ -6420,22 +6420,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U28" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="V28" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="W28" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="X28" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="Y28" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="29">
@@ -6472,19 +6472,19 @@
         <v>599.7771454756521</v>
       </c>
       <c r="K29" t="n">
-        <v>1901.586501346477</v>
+        <v>1936.671378010443</v>
       </c>
       <c r="L29" t="n">
-        <v>2819.17922466306</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M29" t="n">
-        <v>3301.358424176563</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N29" t="n">
-        <v>3866.401488049235</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O29" t="n">
-        <v>4776.556370989979</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P29" t="n">
         <v>6474.295852434775</v>
@@ -6706,25 +6706,25 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J32" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K32" t="n">
-        <v>2153.765102156982</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L32" t="n">
-        <v>3071.357825473565</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M32" t="n">
-        <v>3553.537024987068</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N32" t="n">
-        <v>4118.58008885974</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O32" t="n">
-        <v>5028.734971800483</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P32" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q32" t="n">
         <v>6931.116362236997</v>
@@ -6919,16 +6919,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C35" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D35" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E35" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F35" t="n">
         <v>894.2358041069906</v>
@@ -6946,22 +6946,22 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K35" t="n">
-        <v>2124.71495243113</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L35" t="n">
-        <v>3071.357825473565</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M35" t="n">
-        <v>3553.537024987068</v>
+        <v>3864.448844008177</v>
       </c>
       <c r="N35" t="n">
-        <v>4118.58008885974</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O35" t="n">
-        <v>5028.734971800483</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P35" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q35" t="n">
         <v>6931.116362236997</v>
@@ -6979,16 +6979,16 @@
         <v>5461.408922542916</v>
       </c>
       <c r="V35" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W35" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X35" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y35" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="36">
@@ -7177,31 +7177,31 @@
         <v>140.96</v>
       </c>
       <c r="I38" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J38" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K38" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L38" t="n">
-        <v>2595.354589746543</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M38" t="n">
-        <v>3077.533789260046</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N38" t="n">
-        <v>4728.273641396618</v>
+        <v>4389.93206401015</v>
       </c>
       <c r="O38" t="n">
-        <v>5638.428524337362</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P38" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q38" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R38" t="n">
         <v>7048</v>
@@ -7283,7 +7283,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R39" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S39" t="n">
         <v>5159.222422432123</v>
@@ -7314,22 +7314,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H40" t="n">
         <v>140.96</v>
@@ -7377,13 +7377,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="W40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="41">
@@ -7393,7 +7393,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C41" t="n">
         <v>2126.146990020859</v>
@@ -7423,22 +7423,22 @@
         <v>1339.420289043491</v>
       </c>
       <c r="L41" t="n">
-        <v>2819.17922466306</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M41" t="n">
-        <v>3301.358424176563</v>
+        <v>3788.860546968407</v>
       </c>
       <c r="N41" t="n">
-        <v>3866.401488049235</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O41" t="n">
-        <v>4776.556370989979</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P41" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q41" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R41" t="n">
         <v>7048</v>
@@ -7605,13 +7605,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W43" t="n">
         <v>140.96</v>
@@ -7654,25 +7654,25 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J44" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K44" t="n">
-        <v>2550.716641651425</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L44" t="n">
-        <v>3681.051378010443</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M44" t="n">
-        <v>4163.230577523946</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N44" t="n">
-        <v>4728.273641396618</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O44" t="n">
-        <v>5638.428524337362</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P44" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q44" t="n">
         <v>6931.116362236997</v>
@@ -7984,13 +7984,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K2" t="n">
-        <v>526.9321130577587</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L2" t="n">
-        <v>835.1386633165826</v>
+        <v>214.8909222650855</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -8224,10 +8224,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>519.4191429811535</v>
       </c>
       <c r="L5" t="n">
-        <v>491.4928437002175</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8236,10 +8236,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P5" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8458,19 +8458,19 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J8" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>214.8909222650855</v>
+        <v>265.4073538855534</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -8698,10 +8698,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>491.4928437002177</v>
       </c>
       <c r="L11" t="n">
-        <v>746.2187031047679</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8713,10 +8713,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q11" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>294.54111633436</v>
@@ -8938,7 +8938,7 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L14" t="n">
-        <v>645.1956588512421</v>
+        <v>29.34358558166878</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8953,7 +8953,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R14" t="n">
         <v>294.54111633436</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>265.4073538855536</v>
+        <v>491.4928437002177</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9652,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>341.7591690772404</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>595.77095817284</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9883,10 +9883,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>721.547474042929</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9898,13 +9898,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R26" t="n">
-        <v>294.54111633436</v>
+        <v>246.5337019566904</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10120,10 +10120,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>567.8446588919048</v>
+        <v>603.283928249446</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10354,13 +10354,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J32" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>315.9139665186112</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>294.54111633436</v>
@@ -10594,16 +10594,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>29.34358558166878</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>301.7997308240087</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10612,7 +10612,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>294.54111633436</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>265.4073538855534</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>1096.663422488788</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>459.8234496459306</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10852,7 +10852,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11071,25 +11071,25 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>567.8446588919046</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>496.2158265843859</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11302,13 +11302,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J44" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L44" t="n">
-        <v>214.8909222650855</v>
+        <v>29.34358558166878</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11323,7 +11323,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R44" t="n">
         <v>294.54111633436</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.388344292978047</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23281,7 +23281,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23390,10 +23390,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>272.7252466480447</v>
       </c>
       <c r="D13" t="n">
-        <v>285.5362180555555</v>
+        <v>120.3234295121291</v>
       </c>
       <c r="E13" t="n">
         <v>280.9809048369565</v>
@@ -23442,7 +23442,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W13" t="n">
-        <v>158.5641654399917</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X13" t="n">
         <v>247.4436454301076</v>
@@ -23551,13 +23551,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.388344292977649</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H16" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I16" t="n">
         <v>97.40414414470841</v>
@@ -23715,13 +23715,13 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U16" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>199.1703102162162</v>
       </c>
       <c r="W16" t="n">
-        <v>226.3728098387097</v>
+        <v>211.9747076517084</v>
       </c>
       <c r="X16" t="n">
         <v>247.4436454301076</v>
@@ -23755,7 +23755,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.388344292978104</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23913,7 +23913,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H19" t="n">
-        <v>205.3472244622743</v>
+        <v>137.5385800635563</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U19" t="n">
-        <v>83.00604195770714</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V19" t="n">
         <v>199.1703102162162</v>
@@ -24338,10 +24338,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S24" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>287.1138003370787</v>
       </c>
       <c r="C28" t="n">
-        <v>258.3271444610434</v>
+        <v>272.7252466480447</v>
       </c>
       <c r="D28" t="n">
         <v>285.5362180555555</v>
@@ -24660,10 +24660,10 @@
         <v>316.45975839138</v>
       </c>
       <c r="T28" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V28" t="n">
         <v>199.1703102162162</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.388344292978104</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25523,10 +25523,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S39" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H40" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I40" t="n">
         <v>97.40414414470841</v>
@@ -25617,7 +25617,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W40" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X40" t="n">
         <v>247.4436454301076</v>
@@ -25633,10 +25633,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="C41" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T43" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U43" t="n">
         <v>150.8146863564251</v>
@@ -25854,7 +25854,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W43" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X43" t="n">
         <v>247.4436454301076</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15273.56714929388</v>
+        <v>1265610.825518069</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30280.7835895476</v>
+        <v>2493503.439842348</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>45288.0000298013</v>
+        <v>3721396.054166629</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>62368.72817233024</v>
+        <v>4821237.927791082</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>79449.45631485917</v>
+        <v>5921079.801415535</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>96530.1844573881</v>
+        <v>7020921.675039981</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>113610.912599917</v>
+        <v>8120763.548664425</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>130691.6407424459</v>
+        <v>9220605.422288867</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>147772.3688849749</v>
+        <v>10320447.29591331</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>164853.0970275021</v>
+        <v>11420289.16953805</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>181933.825170031</v>
+        <v>12520131.04316249</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>199014.5533125599</v>
+        <v>13619972.91678694</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>216095.281455089</v>
+        <v>14719814.79041141</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>233176.0095976182</v>
+        <v>15819656.66403587</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>250256.7377401474</v>
+        <v>16919498.53766034</v>
       </c>
     </row>
   </sheetData>
@@ -26319,16 +26319,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>976017.2062577605</v>
+      </c>
+      <c r="C2" t="n">
         <v>976017.2062577606</v>
       </c>
-      <c r="C2" t="n">
-        <v>976017.2062577608</v>
-      </c>
       <c r="D2" t="n">
-        <v>976017.2062577605</v>
+        <v>976017.2062577606</v>
       </c>
       <c r="E2" t="n">
-        <v>874233.2841630246</v>
+        <v>874233.2841630249</v>
       </c>
       <c r="F2" t="n">
         <v>874233.2841630245</v>
@@ -26340,25 +26340,25 @@
         <v>874233.2841630249</v>
       </c>
       <c r="I2" t="n">
+        <v>874233.284163025</v>
+      </c>
+      <c r="J2" t="n">
         <v>874233.2841630247</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>874233.2841632587</v>
+      </c>
+      <c r="L2" t="n">
         <v>874233.2841630249</v>
       </c>
-      <c r="K2" t="n">
-        <v>874233.2841632586</v>
-      </c>
-      <c r="L2" t="n">
-        <v>874233.2841630247</v>
-      </c>
       <c r="M2" t="n">
-        <v>874233.284163025</v>
+        <v>874233.2841630249</v>
       </c>
       <c r="N2" t="n">
-        <v>874233.284163025</v>
+        <v>874233.2841630246</v>
       </c>
       <c r="O2" t="n">
-        <v>874233.2841630246</v>
+        <v>874233.2841630245</v>
       </c>
       <c r="P2" t="n">
         <v>874233.2841630246</v>
@@ -26429,10 +26429,10 @@
         <v>113919.326896347</v>
       </c>
       <c r="D4" t="n">
-        <v>113616.9662264139</v>
+        <v>113616.966226414</v>
       </c>
       <c r="E4" t="n">
-        <v>38928.93672769592</v>
+        <v>38928.93672769591</v>
       </c>
       <c r="F4" t="n">
         <v>38928.93672769592</v>
@@ -26441,16 +26441,16 @@
         <v>38928.93672769592</v>
       </c>
       <c r="H4" t="n">
-        <v>38928.93672769592</v>
+        <v>38928.93672769591</v>
       </c>
       <c r="I4" t="n">
-        <v>38928.93672769592</v>
+        <v>38928.93672769591</v>
       </c>
       <c r="J4" t="n">
-        <v>38928.93672769592</v>
+        <v>38928.9367276959</v>
       </c>
       <c r="K4" t="n">
-        <v>38928.93672786299</v>
+        <v>38928.936727863</v>
       </c>
       <c r="L4" t="n">
         <v>38928.93672769592</v>
@@ -26459,7 +26459,7 @@
         <v>38928.93672769592</v>
       </c>
       <c r="N4" t="n">
-        <v>38928.93672769592</v>
+        <v>38928.93672769591</v>
       </c>
       <c r="O4" t="n">
         <v>38928.93672769591</v>
@@ -26530,13 +26530,13 @@
         <v>-1355510.071693067</v>
       </c>
       <c r="C6" t="n">
-        <v>689490.8793614138</v>
+        <v>689490.8793614137</v>
       </c>
       <c r="D6" t="n">
-        <v>689793.2400313466</v>
+        <v>689793.2400313467</v>
       </c>
       <c r="E6" t="n">
-        <v>696324.9474353287</v>
+        <v>696324.947435329</v>
       </c>
       <c r="F6" t="n">
         <v>696324.9474353286</v>
@@ -26548,25 +26548,25 @@
         <v>696324.947435329</v>
       </c>
       <c r="I6" t="n">
-        <v>696324.9474353289</v>
+        <v>696324.9474353291</v>
       </c>
       <c r="J6" t="n">
-        <v>76100.94743532897</v>
+        <v>76100.94743532885</v>
       </c>
       <c r="K6" t="n">
-        <v>696324.9474353956</v>
+        <v>696324.9474353958</v>
       </c>
       <c r="L6" t="n">
-        <v>696324.9474353289</v>
+        <v>696324.947435329</v>
       </c>
       <c r="M6" t="n">
-        <v>696324.9474353291</v>
+        <v>696324.947435329</v>
       </c>
       <c r="N6" t="n">
-        <v>696324.9474353291</v>
+        <v>696324.9474353287</v>
       </c>
       <c r="O6" t="n">
-        <v>696324.9474353287</v>
+        <v>696324.9474353286</v>
       </c>
       <c r="P6" t="n">
         <v>696324.9474353287</v>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27144,19 +27144,19 @@
         <v>1762</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27520,7 +27520,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27559,7 +27559,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27699,16 +27699,16 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M4" t="n">
-        <v>258.8126637769763</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N4" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O4" t="n">
-        <v>268.0582198167198</v>
+        <v>388.0294482079483</v>
       </c>
       <c r="P4" t="n">
-        <v>368.8061924102448</v>
+        <v>400</v>
       </c>
       <c r="Q4" t="n">
         <v>400</v>
@@ -27924,7 +27924,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I7" t="n">
-        <v>97.40414414470841</v>
+        <v>248.5691801256921</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27933,7 +27933,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>51.07917903744982</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M7" t="n">
         <v>107.6476277959926</v>
@@ -27942,7 +27942,7 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O7" t="n">
-        <v>400</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P7" t="n">
         <v>368.8061924102448</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28033,7 +28033,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28143,10 +28143,10 @@
         <v>287.1138003370787</v>
       </c>
       <c r="C10" t="n">
-        <v>272.7252466480447</v>
+        <v>309.4265006845838</v>
       </c>
       <c r="D10" t="n">
-        <v>285.5362180555555</v>
+        <v>400</v>
       </c>
       <c r="E10" t="n">
         <v>280.9809048369565</v>
@@ -28161,7 +28161,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I10" t="n">
-        <v>217.3753725359369</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28182,7 +28182,7 @@
         <v>268.0582198167198</v>
       </c>
       <c r="P10" t="n">
-        <v>400</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q10" t="n">
         <v>400</v>
@@ -34828,13 +34828,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J2" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K2" t="n">
-        <v>1274.04639948992</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L2" t="n">
-        <v>1762</v>
+        <v>1141.752258948503</v>
       </c>
       <c r="M2" t="n">
         <v>487.0496964782857</v>
@@ -34995,16 +34995,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35068,10 +35068,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K5" t="n">
-        <v>747.114286432161</v>
+        <v>1266.533429413314</v>
       </c>
       <c r="L5" t="n">
-        <v>1418.354180383635</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M5" t="n">
         <v>487.0496964782857</v>
@@ -35080,10 +35080,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O5" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P5" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q5" t="n">
         <v>461.4348583860824</v>
@@ -35220,7 +35220,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="J7" t="n">
         <v>150.9965757542561</v>
@@ -35229,7 +35229,7 @@
         <v>17.57070160869296</v>
       </c>
       <c r="L7" t="n">
-        <v>19.22325579770347</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -35238,7 +35238,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>131.9417801832802</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35302,19 +35302,19 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J8" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L8" t="n">
-        <v>1141.752258948503</v>
+        <v>1192.268690568971</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N8" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O8" t="n">
         <v>919.3483666068121</v>
@@ -35439,10 +35439,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>36.70125403653914</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>114.4637819444445</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -35457,7 +35457,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>119.9712283912285</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>150.9965757542561</v>
@@ -35478,7 +35478,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>31.19380758975518</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35542,10 +35542,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K11" t="n">
-        <v>747.114286432161</v>
+        <v>1238.607130132378</v>
       </c>
       <c r="L11" t="n">
-        <v>1673.080039788185</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M11" t="n">
         <v>487.0496964782857</v>
@@ -35557,10 +35557,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P11" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q11" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R11" t="n">
         <v>118.0642805686905</v>
@@ -35782,7 +35782,7 @@
         <v>1463.98940395526</v>
       </c>
       <c r="L14" t="n">
-        <v>1572.05699553466</v>
+        <v>956.2049222650858</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
@@ -35797,7 +35797,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q14" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R14" t="n">
         <v>118.0642805686905</v>
@@ -36253,7 +36253,7 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K20" t="n">
-        <v>1012.521640317714</v>
+        <v>1238.607130132378</v>
       </c>
       <c r="L20" t="n">
         <v>926.8613366834172</v>
@@ -36262,13 +36262,13 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N20" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O20" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P20" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q20" t="n">
         <v>461.4348583860824</v>
@@ -36496,16 +36496,16 @@
         <v>926.8613366834174</v>
       </c>
       <c r="M23" t="n">
-        <v>828.808865555526</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N23" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O23" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P23" t="n">
-        <v>844.3104324216301</v>
+        <v>1440.08139059447</v>
       </c>
       <c r="Q23" t="n">
         <v>461.4348583860824</v>
@@ -36727,10 +36727,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K26" t="n">
-        <v>1463.989403955261</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L26" t="n">
-        <v>1648.408810726346</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M26" t="n">
         <v>487.0496964782857</v>
@@ -36742,13 +36742,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P26" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q26" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R26" t="n">
-        <v>118.0642805686905</v>
+        <v>70.05686619102084</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36964,10 +36964,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>1314.958945324066</v>
+        <v>1350.398214681607</v>
       </c>
       <c r="L29" t="n">
-        <v>926.8613366834172</v>
+        <v>1762</v>
       </c>
       <c r="M29" t="n">
         <v>487.0496964782857</v>
@@ -36979,7 +36979,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P29" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q29" t="n">
         <v>461.4348583860824</v>
@@ -37198,13 +37198,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J32" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K32" t="n">
-        <v>1063.028252950772</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L32" t="n">
-        <v>926.861336683417</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M32" t="n">
         <v>487.0496964782857</v>
@@ -37219,7 +37219,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q32" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R32" t="n">
         <v>118.0642805686905</v>
@@ -37438,16 +37438,16 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L35" t="n">
-        <v>956.2049222650858</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M35" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N35" t="n">
-        <v>570.7505695683558</v>
+        <v>872.5503003923645</v>
       </c>
       <c r="O35" t="n">
         <v>919.3483666068121</v>
@@ -37456,7 +37456,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q35" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R35" t="n">
         <v>118.0642805686905</v>
@@ -37669,16 +37669,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K38" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L38" t="n">
-        <v>1192.268690568971</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M38" t="n">
         <v>487.0496964782857</v>
@@ -37687,7 +37687,7 @@
         <v>1667.413992057144</v>
       </c>
       <c r="O38" t="n">
-        <v>919.3483666068121</v>
+        <v>1379.171816252742</v>
       </c>
       <c r="P38" t="n">
         <v>844.3104324216301</v>
@@ -37696,7 +37696,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R38" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37915,25 +37915,25 @@
         <v>747.1142864321608</v>
       </c>
       <c r="L41" t="n">
-        <v>1494.705995575322</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M41" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N41" t="n">
-        <v>570.7505695683558</v>
+        <v>1066.966396152742</v>
       </c>
       <c r="O41" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P41" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q41" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R41" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38146,13 +38146,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J44" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
         <v>1463.98940395526</v>
       </c>
       <c r="L44" t="n">
-        <v>1141.752258948503</v>
+        <v>956.2049222650858</v>
       </c>
       <c r="M44" t="n">
         <v>487.0496964782857</v>
@@ -38167,7 +38167,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q44" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R44" t="n">
         <v>118.0642805686905</v>
